--- a/speech_processing/analysis/results/cepstrum/F0_comparison_studio_female.xlsx
+++ b/speech_processing/analysis/results/cepstrum/F0_comparison_studio_female.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D162"/>
+  <dimension ref="A1:D150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,13 +460,13 @@
         <v>284.1461181640625</v>
       </c>
       <c r="B2" t="n">
-        <v>275.86</v>
+        <v>280.7</v>
       </c>
       <c r="C2" t="n">
-        <v>8.286118164062486</v>
+        <v>3.446118164062511</v>
       </c>
       <c r="D2" t="n">
-        <v>32.31916056378287</v>
+        <v>26.11966583251953</v>
       </c>
     </row>
     <row r="3">
@@ -537,1377 +537,1377 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>271.0959167480469</v>
+        <v>282.565673828125</v>
       </c>
       <c r="B9" t="n">
-        <v>266.67</v>
+        <v>280.7</v>
       </c>
       <c r="C9" t="n">
-        <v>4.425916748046859</v>
+        <v>1.865673828125011</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>285.7819213867188</v>
+        <v>280.1006774902344</v>
       </c>
       <c r="B10" t="n">
-        <v>266.67</v>
+        <v>285.71</v>
       </c>
       <c r="C10" t="n">
-        <v>19.11192138671873</v>
+        <v>5.609322509765605</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>282.565673828125</v>
+        <v>277.8257446289062</v>
       </c>
       <c r="B11" t="n">
         <v>280.7</v>
       </c>
       <c r="C11" t="n">
-        <v>1.865673828125011</v>
+        <v>2.874255371093739</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>280.1006774902344</v>
+        <v>276.4358825683594</v>
       </c>
       <c r="B12" t="n">
-        <v>280.7</v>
+        <v>275.86</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5993225097656136</v>
+        <v>0.5758825683593614</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>277.8257446289062</v>
+        <v>275.474853515625</v>
       </c>
       <c r="B13" t="n">
-        <v>280.7</v>
+        <v>275.86</v>
       </c>
       <c r="C13" t="n">
-        <v>2.874255371093739</v>
+        <v>0.3851464843750136</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>276.4358825683594</v>
+        <v>272.60693359375</v>
       </c>
       <c r="B14" t="n">
-        <v>275.86</v>
+        <v>271.19</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5758825683593614</v>
+        <v>1.416933593750002</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>275.474853515625</v>
+        <v>267.8378295898438</v>
       </c>
       <c r="B15" t="n">
-        <v>275.86</v>
+        <v>266.67</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3851464843750136</v>
+        <v>1.167829589843734</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>272.60693359375</v>
+        <v>263.2835388183594</v>
       </c>
       <c r="B16" t="n">
-        <v>271.19</v>
+        <v>262.3</v>
       </c>
       <c r="C16" t="n">
-        <v>1.416933593750002</v>
+        <v>0.9835388183593636</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>267.8378295898438</v>
+        <v>259.0771484375</v>
       </c>
       <c r="B17" t="n">
-        <v>266.67</v>
+        <v>262.3</v>
       </c>
       <c r="C17" t="n">
-        <v>1.167829589843734</v>
+        <v>3.222851562500011</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>263.2835388183594</v>
+        <v>258.5253295898438</v>
       </c>
       <c r="B18" t="n">
         <v>262.3</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9835388183593636</v>
+        <v>3.774670410156261</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>259.0771484375</v>
+        <v>260.898193359375</v>
       </c>
       <c r="B19" t="n">
         <v>262.3</v>
       </c>
       <c r="C19" t="n">
-        <v>3.222851562500011</v>
+        <v>1.401806640625011</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>258.5253295898438</v>
+        <v>258.7015380859375</v>
       </c>
       <c r="B20" t="n">
         <v>262.3</v>
       </c>
       <c r="C20" t="n">
-        <v>3.774670410156261</v>
+        <v>3.598461914062511</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>260.898193359375</v>
+        <v>258.1469116210938</v>
       </c>
       <c r="B21" t="n">
-        <v>262.3</v>
+        <v>258.06</v>
       </c>
       <c r="C21" t="n">
-        <v>1.401806640625011</v>
+        <v>0.08691162109374773</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>258.7015380859375</v>
+        <v>259.3493347167969</v>
       </c>
       <c r="B22" t="n">
-        <v>262.3</v>
+        <v>258.06</v>
       </c>
       <c r="C22" t="n">
-        <v>3.598461914062511</v>
+        <v>1.289334716796873</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>258.1469116210938</v>
+        <v>261.07861328125</v>
       </c>
       <c r="B23" t="n">
         <v>262.3</v>
       </c>
       <c r="C23" t="n">
-        <v>4.153088378906261</v>
+        <v>1.221386718750011</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>259.3493347167969</v>
+        <v>266.45654296875</v>
       </c>
       <c r="B24" t="n">
         <v>262.3</v>
       </c>
       <c r="C24" t="n">
-        <v>2.950665283203136</v>
+        <v>4.156542968749989</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>261.07861328125</v>
+        <v>270.1703796386719</v>
       </c>
       <c r="B25" t="n">
-        <v>262.3</v>
+        <v>266.67</v>
       </c>
       <c r="C25" t="n">
-        <v>1.221386718750011</v>
+        <v>3.500379638671859</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>266.45654296875</v>
+        <v>271.5257263183594</v>
       </c>
       <c r="B26" t="n">
-        <v>262.3</v>
+        <v>271.19</v>
       </c>
       <c r="C26" t="n">
-        <v>4.156542968749989</v>
+        <v>0.3357263183593773</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>270.1703796386719</v>
+        <v>273.0839233398438</v>
       </c>
       <c r="B27" t="n">
-        <v>266.67</v>
+        <v>271.19</v>
       </c>
       <c r="C27" t="n">
-        <v>3.500379638671859</v>
+        <v>1.893923339843752</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>271.5257263183594</v>
+        <v>272.1134643554688</v>
       </c>
       <c r="B28" t="n">
         <v>271.19</v>
       </c>
       <c r="C28" t="n">
-        <v>0.3357263183593773</v>
+        <v>0.9234643554687523</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>273.0839233398438</v>
+        <v>268.0938110351562</v>
       </c>
       <c r="B29" t="n">
         <v>271.19</v>
       </c>
       <c r="C29" t="n">
-        <v>1.893923339843752</v>
+        <v>3.096188964843748</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>272.1134643554688</v>
+        <v>261.3607177734375</v>
       </c>
       <c r="B30" t="n">
         <v>271.19</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9234643554687523</v>
+        <v>9.829282226562498</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>268.0938110351562</v>
+        <v>248.7851867675781</v>
       </c>
       <c r="B31" t="n">
-        <v>271.19</v>
+        <v>250</v>
       </c>
       <c r="C31" t="n">
-        <v>3.096188964843748</v>
+        <v>1.214813232421875</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>261.3607177734375</v>
+        <v>240.4106597900391</v>
       </c>
       <c r="B32" t="n">
-        <v>271.19</v>
+        <v>242.42</v>
       </c>
       <c r="C32" t="n">
-        <v>9.829282226562498</v>
+        <v>2.009340209960925</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>248.7851867675781</v>
+        <v>233.1220550537109</v>
       </c>
       <c r="B33" t="n">
-        <v>246.15</v>
+        <v>225.35</v>
       </c>
       <c r="C33" t="n">
-        <v>2.635186767578119</v>
+        <v>7.772055053710943</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>240.4106597900391</v>
+        <v>226.4646148681641</v>
       </c>
       <c r="B34" t="n">
-        <v>242.42</v>
+        <v>228.57</v>
       </c>
       <c r="C34" t="n">
-        <v>2.009340209960925</v>
+        <v>2.105385131835931</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>233.1220550537109</v>
+        <v>223.4503631591797</v>
       </c>
       <c r="B35" t="n">
-        <v>235.29</v>
+        <v>216.22</v>
       </c>
       <c r="C35" t="n">
-        <v>2.167944946289055</v>
+        <v>7.230363159179689</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>226.4646148681641</v>
+        <v>209.2124481201172</v>
       </c>
       <c r="B36" t="n">
-        <v>228.57</v>
+        <v>207.79</v>
       </c>
       <c r="C36" t="n">
-        <v>2.105385131835931</v>
+        <v>1.422448120117195</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>223.4503631591797</v>
+        <v>200.9752044677734</v>
       </c>
       <c r="B37" t="n">
-        <v>207.79</v>
+        <v>200</v>
       </c>
       <c r="C37" t="n">
-        <v>15.6603631591797</v>
+        <v>0.9752044677734375</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>215.0261077880859</v>
+        <v>102.1970672607422</v>
       </c>
       <c r="B38" t="n">
-        <v>200</v>
+        <v>110.34</v>
       </c>
       <c r="C38" t="n">
-        <v>15.02610778808594</v>
+        <v>8.142932739257816</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>209.2124481201172</v>
+        <v>254.9244079589844</v>
       </c>
       <c r="B39" t="n">
-        <v>97.56</v>
+        <v>253.97</v>
       </c>
       <c r="C39" t="n">
-        <v>111.6524481201172</v>
+        <v>0.9544079589843761</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>200.9752044677734</v>
+        <v>255.2907257080078</v>
       </c>
       <c r="B40" t="n">
-        <v>97.56</v>
+        <v>253.97</v>
       </c>
       <c r="C40" t="n">
-        <v>103.4152044677734</v>
+        <v>1.320725708007814</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>194.8847198486328</v>
+        <v>256.4438781738281</v>
       </c>
       <c r="B41" t="n">
-        <v>110.34</v>
+        <v>258.06</v>
       </c>
       <c r="C41" t="n">
-        <v>84.54471984863281</v>
+        <v>1.616121826171877</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>256.1064758300781</v>
+        <v>255.5089569091797</v>
       </c>
       <c r="B42" t="n">
-        <v>110.34</v>
+        <v>253.97</v>
       </c>
       <c r="C42" t="n">
-        <v>145.7664758300781</v>
+        <v>1.538956909179689</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>254.9244079589844</v>
+        <v>253.2308044433594</v>
       </c>
       <c r="B43" t="n">
-        <v>250</v>
+        <v>258.06</v>
       </c>
       <c r="C43" t="n">
-        <v>4.924407958984375</v>
+        <v>4.829195556640627</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>255.2907257080078</v>
+        <v>258.8116760253906</v>
       </c>
       <c r="B44" t="n">
-        <v>253.97</v>
+        <v>258.06</v>
       </c>
       <c r="C44" t="n">
-        <v>1.320725708007814</v>
+        <v>0.7516760253906227</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>256.4438781738281</v>
+        <v>257.726318359375</v>
       </c>
       <c r="B45" t="n">
         <v>258.06</v>
       </c>
       <c r="C45" t="n">
-        <v>1.616121826171877</v>
+        <v>0.3336816406250023</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>255.5089569091797</v>
+        <v>254.5123291015625</v>
       </c>
       <c r="B46" t="n">
-        <v>258.06</v>
+        <v>253.97</v>
       </c>
       <c r="C46" t="n">
-        <v>2.551043090820315</v>
+        <v>0.5423291015625011</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>253.2308044433594</v>
+        <v>248.4456481933594</v>
       </c>
       <c r="B47" t="n">
-        <v>258.06</v>
+        <v>242.42</v>
       </c>
       <c r="C47" t="n">
-        <v>4.829195556640627</v>
+        <v>6.025648193359388</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>258.8116760253906</v>
+        <v>239.3342742919922</v>
       </c>
       <c r="B48" t="n">
-        <v>258.06</v>
+        <v>238.81</v>
       </c>
       <c r="C48" t="n">
-        <v>0.7516760253906227</v>
+        <v>0.5242742919921852</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>257.726318359375</v>
+        <v>229.5632019042969</v>
       </c>
       <c r="B49" t="n">
-        <v>258.06</v>
+        <v>228.57</v>
       </c>
       <c r="C49" t="n">
-        <v>0.3336816406250023</v>
+        <v>0.9932019042968818</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>254.5123291015625</v>
+        <v>215.9613189697266</v>
       </c>
       <c r="B50" t="n">
-        <v>253.97</v>
+        <v>222.22</v>
       </c>
       <c r="C50" t="n">
-        <v>0.5423291015625011</v>
+        <v>6.258681030273436</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>248.4456481933594</v>
+        <v>200.5313262939453</v>
       </c>
       <c r="B51" t="n">
-        <v>242.42</v>
+        <v>210.53</v>
       </c>
       <c r="C51" t="n">
-        <v>6.025648193359388</v>
+        <v>9.998673706054689</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>246.0466461181641</v>
+        <v>188.1779022216797</v>
       </c>
       <c r="B52" t="n">
-        <v>238.81</v>
+        <v>197.53</v>
       </c>
       <c r="C52" t="n">
-        <v>7.23664611816406</v>
+        <v>9.352097778320314</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>239.3342742919922</v>
+        <v>177.4305877685547</v>
       </c>
       <c r="B53" t="n">
-        <v>228.57</v>
+        <v>179.78</v>
       </c>
       <c r="C53" t="n">
-        <v>10.76427429199219</v>
+        <v>2.349412231445314</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>229.5632019042969</v>
+        <v>0</v>
       </c>
       <c r="B54" t="n">
-        <v>222.22</v>
+        <v>132.23</v>
       </c>
       <c r="C54" t="n">
-        <v>7.343201904296876</v>
+        <v>132.23</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>215.9613189697266</v>
+        <v>0</v>
       </c>
       <c r="B55" t="n">
         <v>222.22</v>
       </c>
       <c r="C55" t="n">
-        <v>6.258681030273436</v>
+        <v>222.22</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>200.5313262939453</v>
+        <v>0</v>
       </c>
       <c r="B56" t="n">
-        <v>222.22</v>
+        <v>216.22</v>
       </c>
       <c r="C56" t="n">
-        <v>21.68867370605469</v>
+        <v>216.22</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>188.1779022216797</v>
+        <v>0</v>
       </c>
       <c r="B57" t="n">
-        <v>210.53</v>
+        <v>242.42</v>
       </c>
       <c r="C57" t="n">
-        <v>22.35209777832031</v>
+        <v>242.42</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>177.4305877685547</v>
+        <v>242.4678497314453</v>
       </c>
       <c r="B58" t="n">
-        <v>200</v>
+        <v>242.42</v>
       </c>
       <c r="C58" t="n">
-        <v>22.56941223144531</v>
+        <v>0.04784973144532501</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0</v>
+        <v>243.0531921386719</v>
       </c>
       <c r="B59" t="n">
-        <v>132.23</v>
+        <v>242.42</v>
       </c>
       <c r="C59" t="n">
-        <v>132.23</v>
+        <v>0.6331921386718875</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0</v>
+        <v>240.4420623779297</v>
       </c>
       <c r="B60" t="n">
-        <v>216.22</v>
+        <v>238.81</v>
       </c>
       <c r="C60" t="n">
-        <v>216.22</v>
+        <v>1.632062377929685</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0</v>
+        <v>235.90625</v>
       </c>
       <c r="B61" t="n">
-        <v>216.22</v>
+        <v>235.29</v>
       </c>
       <c r="C61" t="n">
-        <v>216.22</v>
+        <v>0.616250000000008</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0</v>
+        <v>117.7505035400391</v>
       </c>
       <c r="B62" t="n">
-        <v>216.22</v>
+        <v>231.88</v>
       </c>
       <c r="C62" t="n">
-        <v>216.22</v>
+        <v>114.1294964599609</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0</v>
+        <v>119.3351821899414</v>
       </c>
       <c r="B63" t="n">
-        <v>216.22</v>
+        <v>163.27</v>
       </c>
       <c r="C63" t="n">
-        <v>216.22</v>
+        <v>43.9348178100586</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0</v>
+        <v>105.255729675293</v>
       </c>
       <c r="B64" t="n">
-        <v>231.88</v>
+        <v>172.04</v>
       </c>
       <c r="C64" t="n">
-        <v>231.88</v>
+        <v>66.78427032470702</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0</v>
+        <v>105.3302001953125</v>
       </c>
       <c r="B65" t="n">
-        <v>242.42</v>
+        <v>104.58</v>
       </c>
       <c r="C65" t="n">
-        <v>242.42</v>
+        <v>0.7502001953125017</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>242.4678497314453</v>
+        <v>106.1241989135742</v>
       </c>
       <c r="B66" t="n">
-        <v>242.42</v>
+        <v>107.38</v>
       </c>
       <c r="C66" t="n">
-        <v>0.04784973144532501</v>
+        <v>1.255801086425777</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>243.0531921386719</v>
+        <v>148.0567626953125</v>
       </c>
       <c r="B67" t="n">
-        <v>242.42</v>
+        <v>333.33</v>
       </c>
       <c r="C67" t="n">
-        <v>0.6331921386718875</v>
+        <v>185.2732373046875</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>240.4420623779297</v>
+        <v>153.5124206542969</v>
       </c>
       <c r="B68" t="n">
-        <v>238.81</v>
+        <v>307.69</v>
       </c>
       <c r="C68" t="n">
-        <v>1.632062377929685</v>
+        <v>154.1775793457031</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>235.90625</v>
+        <v>164.8424987792969</v>
       </c>
       <c r="B69" t="n">
-        <v>235.29</v>
+        <v>313.73</v>
       </c>
       <c r="C69" t="n">
-        <v>0.616250000000008</v>
+        <v>148.8875012207031</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>117.7505035400391</v>
+        <v>173.6106109619141</v>
       </c>
       <c r="B70" t="n">
-        <v>231.88</v>
+        <v>340.43</v>
       </c>
       <c r="C70" t="n">
-        <v>114.1294964599609</v>
+        <v>166.8193890380859</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>119.3351821899414</v>
+        <v>180.4026641845703</v>
       </c>
       <c r="B71" t="n">
-        <v>172.04</v>
+        <v>363.64</v>
       </c>
       <c r="C71" t="n">
-        <v>52.70481781005859</v>
+        <v>183.2373358154297</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>105.255729675293</v>
+        <v>187.4887390136719</v>
       </c>
       <c r="B72" t="n">
-        <v>163.27</v>
+        <v>372.09</v>
       </c>
       <c r="C72" t="n">
-        <v>58.01427032470704</v>
+        <v>184.6012609863281</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>105.3302001953125</v>
+        <v>267.2234802246094</v>
       </c>
       <c r="B73" t="n">
-        <v>163.27</v>
+        <v>290.91</v>
       </c>
       <c r="C73" t="n">
-        <v>57.93979980468751</v>
+        <v>23.68651977539065</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>106.1241989135742</v>
+        <v>263.0300903320312</v>
       </c>
       <c r="B74" t="n">
-        <v>172.04</v>
+        <v>262.3</v>
       </c>
       <c r="C74" t="n">
-        <v>65.91580108642577</v>
+        <v>0.7300903320312386</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>148.0567626953125</v>
+        <v>268.4819641113281</v>
       </c>
       <c r="B75" t="n">
-        <v>307.69</v>
+        <v>266.67</v>
       </c>
       <c r="C75" t="n">
-        <v>159.6332373046875</v>
+        <v>1.811964111328109</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>153.5124206542969</v>
+        <v>274.1152038574219</v>
       </c>
       <c r="B76" t="n">
-        <v>320</v>
+        <v>271.19</v>
       </c>
       <c r="C76" t="n">
-        <v>166.4875793457031</v>
+        <v>2.925203857421877</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>164.8424987792969</v>
+        <v>276.1703186035156</v>
       </c>
       <c r="B77" t="n">
-        <v>333.33</v>
+        <v>275.86</v>
       </c>
       <c r="C77" t="n">
-        <v>168.4875012207031</v>
+        <v>0.3103186035156114</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>173.6106109619141</v>
+        <v>277.3549194335938</v>
       </c>
       <c r="B78" t="n">
-        <v>340.43</v>
+        <v>275.86</v>
       </c>
       <c r="C78" t="n">
-        <v>166.8193890380859</v>
+        <v>1.494919433593736</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>180.4026641845703</v>
+        <v>277.5093078613281</v>
       </c>
       <c r="B79" t="n">
-        <v>340.43</v>
+        <v>280.7</v>
       </c>
       <c r="C79" t="n">
-        <v>160.0273358154297</v>
+        <v>3.190692138671864</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>187.4887390136719</v>
+        <v>274.2414245605469</v>
       </c>
       <c r="B80" t="n">
-        <v>340.43</v>
+        <v>275.86</v>
       </c>
       <c r="C80" t="n">
-        <v>152.9412609863281</v>
+        <v>1.618575439453139</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>267.2234802246094</v>
+        <v>268.5804443359375</v>
       </c>
       <c r="B81" t="n">
-        <v>290.91</v>
+        <v>271.19</v>
       </c>
       <c r="C81" t="n">
-        <v>23.68651977539065</v>
+        <v>2.609555664062498</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>263.0300903320312</v>
+        <v>265.8123779296875</v>
       </c>
       <c r="B82" t="n">
-        <v>271.19</v>
+        <v>266.67</v>
       </c>
       <c r="C82" t="n">
-        <v>8.159909667968748</v>
+        <v>0.8576220703125159</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>268.4819641113281</v>
+        <v>263.4010925292969</v>
       </c>
       <c r="B83" t="n">
-        <v>271.19</v>
+        <v>262.3</v>
       </c>
       <c r="C83" t="n">
-        <v>2.708035888671873</v>
+        <v>1.101092529296864</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>274.1152038574219</v>
+        <v>260.9594421386719</v>
       </c>
       <c r="B84" t="n">
-        <v>271.19</v>
+        <v>262.3</v>
       </c>
       <c r="C84" t="n">
-        <v>2.925203857421877</v>
+        <v>1.340557861328136</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>276.1703186035156</v>
+        <v>257.8736877441406</v>
       </c>
       <c r="B85" t="n">
-        <v>275.86</v>
+        <v>258.06</v>
       </c>
       <c r="C85" t="n">
-        <v>0.3103186035156114</v>
+        <v>0.1863122558593773</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>277.3549194335938</v>
+        <v>251.8217163085938</v>
       </c>
       <c r="B86" t="n">
-        <v>275.86</v>
+        <v>250</v>
       </c>
       <c r="C86" t="n">
-        <v>1.494919433593736</v>
+        <v>1.82171630859375</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>277.5093078613281</v>
+        <v>240.0025787353516</v>
       </c>
       <c r="B87" t="n">
-        <v>275.86</v>
+        <v>235.29</v>
       </c>
       <c r="C87" t="n">
-        <v>1.649307861328111</v>
+        <v>4.71257873535157</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>274.2414245605469</v>
+        <v>235.0244445800781</v>
       </c>
       <c r="B88" t="n">
-        <v>275.86</v>
+        <v>231.88</v>
       </c>
       <c r="C88" t="n">
-        <v>1.618575439453139</v>
+        <v>3.14444458007813</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>268.5804443359375</v>
+        <v>0</v>
       </c>
       <c r="B89" t="n">
-        <v>271.19</v>
+        <v>125.98</v>
       </c>
       <c r="C89" t="n">
-        <v>2.609555664062498</v>
+        <v>125.98</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>265.8123779296875</v>
+        <v>0</v>
       </c>
       <c r="B90" t="n">
-        <v>266.67</v>
+        <v>205.13</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8576220703125159</v>
+        <v>205.13</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>263.4010925292969</v>
+        <v>211.6024780273438</v>
       </c>
       <c r="B91" t="n">
-        <v>262.3</v>
+        <v>186.05</v>
       </c>
       <c r="C91" t="n">
-        <v>1.101092529296864</v>
+        <v>25.55247802734374</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>260.9594421386719</v>
+        <v>218.0498962402344</v>
       </c>
       <c r="B92" t="n">
-        <v>262.3</v>
+        <v>222.22</v>
       </c>
       <c r="C92" t="n">
-        <v>1.340557861328136</v>
+        <v>4.170103759765624</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>257.8736877441406</v>
+        <v>217.5386810302734</v>
       </c>
       <c r="B93" t="n">
-        <v>258.06</v>
+        <v>219.18</v>
       </c>
       <c r="C93" t="n">
-        <v>0.1863122558593773</v>
+        <v>1.641318969726569</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>258.87939453125</v>
+        <v>216.6801147460938</v>
       </c>
       <c r="B94" t="n">
-        <v>250</v>
+        <v>213.33</v>
       </c>
       <c r="C94" t="n">
-        <v>8.87939453125</v>
+        <v>3.350114746093737</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>251.8217163085938</v>
+        <v>215.4581604003906</v>
       </c>
       <c r="B95" t="n">
-        <v>235.29</v>
+        <v>213.33</v>
       </c>
       <c r="C95" t="n">
-        <v>16.53171630859376</v>
+        <v>2.128160400390612</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>240.0025787353516</v>
+        <v>214.2986907958984</v>
       </c>
       <c r="B96" t="n">
-        <v>231.88</v>
+        <v>213.33</v>
       </c>
       <c r="C96" t="n">
-        <v>8.122578735351567</v>
+        <v>0.968690795898425</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>235.0244445800781</v>
+        <v>212.9674835205078</v>
       </c>
       <c r="B97" t="n">
-        <v>231.88</v>
+        <v>213.33</v>
       </c>
       <c r="C97" t="n">
-        <v>3.14444458007813</v>
+        <v>0.3625164794922</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0</v>
+        <v>210.8018493652344</v>
       </c>
       <c r="B98" t="n">
-        <v>125.98</v>
+        <v>210.53</v>
       </c>
       <c r="C98" t="n">
-        <v>125.98</v>
+        <v>0.2718493652343739</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0</v>
+        <v>207.6190490722656</v>
       </c>
       <c r="B99" t="n">
-        <v>125.98</v>
+        <v>207.79</v>
       </c>
       <c r="C99" t="n">
-        <v>125.98</v>
+        <v>0.170950927734367</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0</v>
+        <v>203.5740966796875</v>
       </c>
       <c r="B100" t="n">
-        <v>125.98</v>
+        <v>202.53</v>
       </c>
       <c r="C100" t="n">
-        <v>125.98</v>
+        <v>1.044096679687499</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>211.6024780273438</v>
+        <v>200.0056610107422</v>
       </c>
       <c r="B101" t="n">
-        <v>186.05</v>
+        <v>202.53</v>
       </c>
       <c r="C101" t="n">
-        <v>25.55247802734374</v>
+        <v>2.524338989257814</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>216.2890930175781</v>
+        <v>195.5510101318359</v>
       </c>
       <c r="B102" t="n">
-        <v>205.13</v>
+        <v>197.53</v>
       </c>
       <c r="C102" t="n">
-        <v>11.15909301757813</v>
+        <v>1.978989868164064</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>218.0498962402344</v>
+        <v>191.1106567382812</v>
       </c>
       <c r="B103" t="n">
-        <v>213.33</v>
+        <v>192.77</v>
       </c>
       <c r="C103" t="n">
-        <v>4.719896240234362</v>
+        <v>1.65934326171876</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>217.5386810302734</v>
+        <v>188.9418334960938</v>
       </c>
       <c r="B104" t="n">
-        <v>213.33</v>
+        <v>188.24</v>
       </c>
       <c r="C104" t="n">
-        <v>4.208681030273425</v>
+        <v>0.7018334960937409</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>216.6801147460938</v>
+        <v>186.2887725830078</v>
       </c>
       <c r="B105" t="n">
-        <v>216.22</v>
+        <v>186.05</v>
       </c>
       <c r="C105" t="n">
-        <v>0.4601147460937511</v>
+        <v>0.2387725830078011</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>215.4581604003906</v>
+        <v>0</v>
       </c>
       <c r="B106" t="n">
-        <v>213.33</v>
+        <v>195.12</v>
       </c>
       <c r="C106" t="n">
-        <v>2.128160400390612</v>
+        <v>195.12</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>214.2986907958984</v>
+        <v>0</v>
       </c>
       <c r="B107" t="n">
-        <v>213.33</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="C107" t="n">
-        <v>0.968690795898425</v>
+        <v>88.40000000000001</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>212.9674835205078</v>
+        <v>0</v>
       </c>
       <c r="B108" t="n">
-        <v>213.33</v>
+        <v>200</v>
       </c>
       <c r="C108" t="n">
-        <v>0.3625164794922</v>
+        <v>200</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>210.8018493652344</v>
+        <v>220.5358734130859</v>
       </c>
       <c r="B109" t="n">
-        <v>210.53</v>
+        <v>222.22</v>
       </c>
       <c r="C109" t="n">
-        <v>0.2718493652343739</v>
+        <v>1.684126586914061</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>207.6190490722656</v>
+        <v>215.9197845458984</v>
       </c>
       <c r="B110" t="n">
-        <v>207.79</v>
+        <v>219.18</v>
       </c>
       <c r="C110" t="n">
-        <v>0.170950927734367</v>
+        <v>3.260215454101569</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>203.5740966796875</v>
+        <v>210.6063537597656</v>
       </c>
       <c r="B111" t="n">
-        <v>202.53</v>
+        <v>210.53</v>
       </c>
       <c r="C111" t="n">
-        <v>1.044096679687499</v>
+        <v>0.07635375976562386</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>200.0056610107422</v>
+        <v>205.5946197509766</v>
       </c>
       <c r="B112" t="n">
-        <v>200</v>
+        <v>205.13</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0056610107421875</v>
+        <v>0.464619750976567</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>195.5510101318359</v>
+        <v>202.0573577880859</v>
       </c>
       <c r="B113" t="n">
-        <v>197.53</v>
+        <v>202.53</v>
       </c>
       <c r="C113" t="n">
-        <v>1.978989868164064</v>
+        <v>0.4726422119140636</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>191.1106567382812</v>
+        <v>201.8424377441406</v>
       </c>
       <c r="B114" t="n">
-        <v>192.77</v>
+        <v>200</v>
       </c>
       <c r="C114" t="n">
-        <v>1.65934326171876</v>
+        <v>1.842437744140625</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>188.9418334960938</v>
+        <v>204.9910125732422</v>
       </c>
       <c r="B115" t="n">
-        <v>188.24</v>
+        <v>202.53</v>
       </c>
       <c r="C115" t="n">
-        <v>0.7018334960937409</v>
+        <v>2.461012573242186</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>186.2887725830078</v>
+        <v>209.3568572998047</v>
       </c>
       <c r="B116" t="n">
-        <v>186.05</v>
+        <v>207.79</v>
       </c>
       <c r="C116" t="n">
-        <v>0.2387725830078011</v>
+        <v>1.566857299804695</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>194.5758819580078</v>
+        <v>212.2246856689453</v>
       </c>
       <c r="B117" t="n">
-        <v>186.05</v>
+        <v>210.53</v>
       </c>
       <c r="C117" t="n">
-        <v>8.525881958007801</v>
+        <v>1.694685668945311</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0</v>
+        <v>216.7476348876953</v>
       </c>
       <c r="B118" t="n">
-        <v>88.40000000000001</v>
+        <v>216.22</v>
       </c>
       <c r="C118" t="n">
-        <v>88.40000000000001</v>
+        <v>0.5276348876953136</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0</v>
+        <v>224.4067230224609</v>
       </c>
       <c r="B119" t="n">
-        <v>88.40000000000001</v>
+        <v>228.57</v>
       </c>
       <c r="C119" t="n">
-        <v>88.40000000000001</v>
+        <v>4.163276977539056</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0</v>
+        <v>232.0656127929688</v>
       </c>
       <c r="B120" t="n">
-        <v>88.40000000000001</v>
+        <v>242.42</v>
       </c>
       <c r="C120" t="n">
-        <v>88.40000000000001</v>
+        <v>10.35438720703124</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>220.5358734130859</v>
+        <v>231.5060272216797</v>
       </c>
       <c r="B121" t="n">
-        <v>210.53</v>
+        <v>228.57</v>
       </c>
       <c r="C121" t="n">
-        <v>10.00587341308594</v>
+        <v>2.936027221679694</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>215.9197845458984</v>
+        <v>0</v>
       </c>
       <c r="B122" t="n">
-        <v>210.53</v>
+        <v>275.86</v>
       </c>
       <c r="C122" t="n">
-        <v>5.389784545898436</v>
+        <v>275.86</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>210.6063537597656</v>
+        <v>327.013916015625</v>
       </c>
       <c r="B123" t="n">
-        <v>210.53</v>
+        <v>340.43</v>
       </c>
       <c r="C123" t="n">
-        <v>0.07635375976562386</v>
+        <v>13.41608398437501</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>205.5946197509766</v>
+        <v>321.2171325683594</v>
       </c>
       <c r="B124" t="n">
-        <v>207.79</v>
+        <v>313.73</v>
       </c>
       <c r="C124" t="n">
-        <v>2.19538024902343</v>
+        <v>7.487132568359357</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>202.0573577880859</v>
+        <v>316.1354675292969</v>
       </c>
       <c r="B125" t="n">
-        <v>202.53</v>
+        <v>320</v>
       </c>
       <c r="C125" t="n">
-        <v>0.4726422119140636</v>
+        <v>3.864532470703125</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>201.8424377441406</v>
+        <v>313.2698974609375</v>
       </c>
       <c r="B126" t="n">
-        <v>202.53</v>
+        <v>320</v>
       </c>
       <c r="C126" t="n">
-        <v>0.6875622558593761</v>
+        <v>6.7301025390625</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>204.9910125732422</v>
+        <v>315.1766967773438</v>
       </c>
       <c r="B127" t="n">
-        <v>202.53</v>
+        <v>326.53</v>
       </c>
       <c r="C127" t="n">
-        <v>2.461012573242186</v>
+        <v>11.35330322265622</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>209.3568572998047</v>
+        <v>242.2765197753906</v>
       </c>
       <c r="B128" t="n">
-        <v>207.79</v>
+        <v>242.42</v>
       </c>
       <c r="C128" t="n">
-        <v>1.566857299804695</v>
+        <v>0.1434802246093625</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>212.2246856689453</v>
+        <v>128.0481414794922</v>
       </c>
       <c r="B129" t="n">
-        <v>210.53</v>
+        <v>125.98</v>
       </c>
       <c r="C129" t="n">
-        <v>1.694685668945311</v>
+        <v>2.068141479492184</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>216.7476348876953</v>
+        <v>130.8199920654297</v>
       </c>
       <c r="B130" t="n">
-        <v>216.22</v>
+        <v>126.98</v>
       </c>
       <c r="C130" t="n">
-        <v>0.5276348876953136</v>
+        <v>3.839992065429684</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>224.4067230224609</v>
+        <v>0</v>
       </c>
       <c r="B131" t="n">
-        <v>228.57</v>
+        <v>128</v>
       </c>
       <c r="C131" t="n">
-        <v>4.163276977539056</v>
+        <v>128</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>232.0656127929688</v>
+        <v>0</v>
       </c>
       <c r="B132" t="n">
-        <v>228.57</v>
+        <v>88.89</v>
       </c>
       <c r="C132" t="n">
-        <v>3.495612792968757</v>
+        <v>88.89</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>231.5060272216797</v>
+        <v>0</v>
       </c>
       <c r="B133" t="n">
-        <v>235.29</v>
+        <v>84.20999999999999</v>
       </c>
       <c r="C133" t="n">
-        <v>3.783972778320305</v>
+        <v>84.20999999999999</v>
       </c>
     </row>
     <row r="134">
@@ -1915,317 +1915,185 @@
         <v>0</v>
       </c>
       <c r="B134" t="n">
-        <v>313.73</v>
+        <v>68.09</v>
       </c>
       <c r="C134" t="n">
-        <v>313.73</v>
+        <v>68.09</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>327.013916015625</v>
+        <v>268.9080505371094</v>
       </c>
       <c r="B135" t="n">
-        <v>313.73</v>
+        <v>262.3</v>
       </c>
       <c r="C135" t="n">
-        <v>13.28391601562498</v>
+        <v>6.608050537109364</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>321.2171325683594</v>
+        <v>264.7317199707031</v>
       </c>
       <c r="B136" t="n">
-        <v>320</v>
+        <v>266.67</v>
       </c>
       <c r="C136" t="n">
-        <v>1.217132568359375</v>
+        <v>1.938280029296891</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>316.1354675292969</v>
+        <v>260.6650390625</v>
       </c>
       <c r="B137" t="n">
-        <v>320</v>
+        <v>262.3</v>
       </c>
       <c r="C137" t="n">
-        <v>3.864532470703125</v>
+        <v>1.634960937500011</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>313.2698974609375</v>
+        <v>257.1968383789062</v>
       </c>
       <c r="B138" t="n">
-        <v>320</v>
+        <v>258.06</v>
       </c>
       <c r="C138" t="n">
-        <v>6.7301025390625</v>
+        <v>0.8631616210937523</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>315.1766967773438</v>
+        <v>254.9377288818359</v>
       </c>
       <c r="B139" t="n">
-        <v>320</v>
+        <v>253.97</v>
       </c>
       <c r="C139" t="n">
-        <v>4.82330322265625</v>
+        <v>0.9677288818359386</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>242.2765197753906</v>
+        <v>255.3761138916016</v>
       </c>
       <c r="B140" t="n">
-        <v>125.98</v>
+        <v>258.06</v>
       </c>
       <c r="C140" t="n">
-        <v>116.2965197753906</v>
+        <v>2.68388610839844</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>128.0481414794922</v>
+        <v>256.8788757324219</v>
       </c>
       <c r="B141" t="n">
-        <v>126.98</v>
+        <v>258.06</v>
       </c>
       <c r="C141" t="n">
-        <v>1.068141479492184</v>
+        <v>1.181124267578127</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>130.8199920654297</v>
+        <v>256.4321594238281</v>
       </c>
       <c r="B142" t="n">
-        <v>126.98</v>
+        <v>253.97</v>
       </c>
       <c r="C142" t="n">
-        <v>3.839992065429684</v>
+        <v>2.462159423828126</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0</v>
+        <v>254.772705078125</v>
       </c>
       <c r="B143" t="n">
-        <v>125.98</v>
+        <v>253.97</v>
       </c>
       <c r="C143" t="n">
-        <v>125.98</v>
+        <v>0.8027050781250011</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0</v>
+        <v>254.1139373779297</v>
       </c>
       <c r="B144" t="n">
-        <v>88.89</v>
+        <v>253.97</v>
       </c>
       <c r="C144" t="n">
-        <v>88.89</v>
+        <v>0.1439373779296886</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0</v>
+        <v>252.9141387939453</v>
       </c>
       <c r="B145" t="n">
-        <v>84.20999999999999</v>
+        <v>253.97</v>
       </c>
       <c r="C145" t="n">
-        <v>84.20999999999999</v>
+        <v>1.055861206054686</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0</v>
+        <v>252.3846130371094</v>
       </c>
       <c r="B146" t="n">
-        <v>68.09</v>
+        <v>253.97</v>
       </c>
       <c r="C146" t="n">
-        <v>68.09</v>
+        <v>1.585386962890624</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>268.9080505371094</v>
+        <v>253.2979431152344</v>
       </c>
       <c r="B147" t="n">
-        <v>262.3</v>
+        <v>258.06</v>
       </c>
       <c r="C147" t="n">
-        <v>6.608050537109364</v>
+        <v>4.762056884765627</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>264.7317199707031</v>
+        <v>253.5129699707031</v>
       </c>
       <c r="B148" t="n">
-        <v>262.3</v>
+        <v>253.97</v>
       </c>
       <c r="C148" t="n">
-        <v>2.431719970703114</v>
+        <v>0.4570300292968739</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>260.6650390625</v>
+        <v>250.9760284423828</v>
       </c>
       <c r="B149" t="n">
-        <v>262.3</v>
+        <v>250</v>
       </c>
       <c r="C149" t="n">
-        <v>1.634960937500011</v>
+        <v>0.9760284423828125</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>257.1968383789062</v>
+        <v>255.0019683837891</v>
       </c>
       <c r="B150" t="n">
-        <v>258.06</v>
+        <v>246.15</v>
       </c>
       <c r="C150" t="n">
-        <v>0.8631616210937523</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="n">
-        <v>254.9377288818359</v>
-      </c>
-      <c r="B151" t="n">
-        <v>258.06</v>
-      </c>
-      <c r="C151" t="n">
-        <v>3.122271118164065</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="n">
-        <v>255.3761138916016</v>
-      </c>
-      <c r="B152" t="n">
-        <v>258.06</v>
-      </c>
-      <c r="C152" t="n">
-        <v>2.68388610839844</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="n">
-        <v>256.8788757324219</v>
-      </c>
-      <c r="B153" t="n">
-        <v>253.97</v>
-      </c>
-      <c r="C153" t="n">
-        <v>2.908875732421876</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="n">
-        <v>256.4321594238281</v>
-      </c>
-      <c r="B154" t="n">
-        <v>253.97</v>
-      </c>
-      <c r="C154" t="n">
-        <v>2.462159423828126</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="n">
-        <v>254.772705078125</v>
-      </c>
-      <c r="B155" t="n">
-        <v>253.97</v>
-      </c>
-      <c r="C155" t="n">
-        <v>0.8027050781250011</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="n">
-        <v>254.1139373779297</v>
-      </c>
-      <c r="B156" t="n">
-        <v>253.97</v>
-      </c>
-      <c r="C156" t="n">
-        <v>0.1439373779296886</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="n">
-        <v>252.9141387939453</v>
-      </c>
-      <c r="B157" t="n">
-        <v>253.97</v>
-      </c>
-      <c r="C157" t="n">
-        <v>1.055861206054686</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="n">
-        <v>252.3846130371094</v>
-      </c>
-      <c r="B158" t="n">
-        <v>253.97</v>
-      </c>
-      <c r="C158" t="n">
-        <v>1.585386962890624</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="n">
-        <v>253.2979431152344</v>
-      </c>
-      <c r="B159" t="n">
-        <v>253.97</v>
-      </c>
-      <c r="C159" t="n">
-        <v>0.6720568847656239</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="n">
-        <v>253.5129699707031</v>
-      </c>
-      <c r="B160" t="n">
-        <v>253.97</v>
-      </c>
-      <c r="C160" t="n">
-        <v>0.4570300292968739</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="n">
-        <v>250.9760284423828</v>
-      </c>
-      <c r="B161" t="n">
-        <v>250</v>
-      </c>
-      <c r="C161" t="n">
-        <v>0.9760284423828125</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="n">
-        <v>255.0019683837891</v>
-      </c>
-      <c r="B162" t="n">
-        <v>246.15</v>
-      </c>
-      <c r="C162" t="n">
         <v>8.851968383789057</v>
       </c>
     </row>
